--- a/biology/Zoologie/Colin_d'Alaska/Colin_d'Alaska.xlsx
+++ b/biology/Zoologie/Colin_d'Alaska/Colin_d'Alaska.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Colin_d%27Alaska</t>
+          <t>Colin_d'Alaska</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Theragra chalcogramma
 Le Colin d'Alaska (Theragra chalcogramma) ou Lieu d'Alaska, Goberge de l'Alaska (Canada) est une espèce de poissons marins de la famille des Gadidae qui se rencontre dans le nord de l'océan Pacifique.
@@ -495,7 +507,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Colin_d%27Alaska</t>
+          <t>Colin_d'Alaska</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -513,7 +525,9 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Cette espèce se rencontre dans le Pacifique, de Kivalina en Alaska jusqu'à Carmel-by-the-Sea en Californie, et vers l'ouest jusqu'à la mer du Japon. C'est une espèce non migratrice qui est présente entre 0 et 1 280 m de profondeur.
 </t>
@@ -526,7 +540,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Colin_d%27Alaska</t>
+          <t>Colin_d'Alaska</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -544,9 +558,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Theragra chalcogramma mesure 90 cm pour un poids de 3,85 kg, à maturité sexuelle à 3 ou 4 ans. Il peut atteindre l'âge de 30 ans et une longueur de 130 cm pour une masse de 18 kg[1].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Theragra chalcogramma mesure 90 cm pour un poids de 3,85 kg, à maturité sexuelle à 3 ou 4 ans. Il peut atteindre l'âge de 30 ans et une longueur de 130 cm pour une masse de 18 kg.
 </t>
         </is>
       </c>
@@ -557,7 +573,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Colin_d%27Alaska</t>
+          <t>Colin_d'Alaska</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -575,9 +591,11 @@
           <t>Pêche</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le Colin d'Alaska est la première espèce animale aquatique la plus pêchée au monde[2]. Les captures de Colin d'Alaska au nord de l'océan Pacifique de l'Alaska au Japon sont montées à 6 millions de tonnes en 1990, puis se sont maintenues depuis les années 2000 à 3 millions de tonnes par an. La pêche de Colin d'Alaska par les États-Unis représente 1,5 million de tonnes par an et est pratiquée essentiellement dans la mer de Béring[1].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le Colin d'Alaska est la première espèce animale aquatique la plus pêchée au monde. Les captures de Colin d'Alaska au nord de l'océan Pacifique de l'Alaska au Japon sont montées à 6 millions de tonnes en 1990, puis se sont maintenues depuis les années 2000 à 3 millions de tonnes par an. La pêche de Colin d'Alaska par les États-Unis représente 1,5 million de tonnes par an et est pratiquée essentiellement dans la mer de Béring.
 </t>
         </is>
       </c>
@@ -588,7 +606,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Colin_d%27Alaska</t>
+          <t>Colin_d'Alaska</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -606,7 +624,9 @@
           <t>Utilisation pour l'alimentation</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Comparé au Colin[Lequel ?], le Colin d'Alaska a un goût plus doux, une couleur plus blanche et contient moins d'huile. Il est consommé en filets, bâtonnets panés, surimi, etc.
 </t>
